--- a/biology/Écologie/Prairies_palousiennes/Prairies_palousiennes.xlsx
+++ b/biology/Écologie/Prairies_palousiennes/Prairies_palousiennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prairies palousiennes forment une écorégion terrestre nord-américaine du type prairies, savanes et brousses tempérées du World Wildlife Fund[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prairies palousiennes forment une écorégion terrestre nord-américaine du type prairies, savanes et brousses tempérées du World Wildlife Fund
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prairie palousienne se retrouve au nord de l'Oregon, dans l'État de Washington, dans l'ouest de l'Idaho et dans le fond des vallées dans l'extrême sud de la Colombie-Britannique[2],[1].  Cette prairie a été altérée dans une proportion de plus de 99 %. La végétation d'origine était composée majoritairement d'agropyre à épi, de fétuque d'Idaho, de Leymus cinereus, de Pascopyrum, de Poa secunda, de Koeleria macrantha, d’Elymus elymoides et de Hesperostipa comata. Aujourd'hui, cette communauté végétale a été remplacée par des cultures de blé ou a été dominée par des espèces introduites comme le brome des toits[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prairie palousienne se retrouve au nord de l'Oregon, dans l'État de Washington, dans l'ouest de l'Idaho et dans le fond des vallées dans l'extrême sud de la Colombie-Britannique,.  Cette prairie a été altérée dans une proportion de plus de 99 %. La végétation d'origine était composée majoritairement d'agropyre à épi, de fétuque d'Idaho, de Leymus cinereus, de Pascopyrum, de Poa secunda, de Koeleria macrantha, d’Elymus elymoides et de Hesperostipa comata. Aujourd'hui, cette communauté végétale a été remplacée par des cultures de blé ou a été dominée par des espèces introduites comme le brome des toits.
 </t>
         </is>
       </c>
